--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ptn</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H2">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I2">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J2">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>177.977656</v>
+        <v>179.8941446666667</v>
       </c>
       <c r="N2">
-        <v>533.9329680000001</v>
+        <v>539.6824340000001</v>
       </c>
       <c r="O2">
-        <v>0.9961032083749486</v>
+        <v>0.9963643720125241</v>
       </c>
       <c r="P2">
-        <v>0.9961032083749484</v>
+        <v>0.9963643720125243</v>
       </c>
       <c r="Q2">
-        <v>259.703749791608</v>
+        <v>418.7605282260963</v>
       </c>
       <c r="R2">
-        <v>2337.333748124472</v>
+        <v>3768.844754034867</v>
       </c>
       <c r="S2">
-        <v>0.01353952006129292</v>
+        <v>0.02120762751698549</v>
       </c>
       <c r="T2">
-        <v>0.01353952006129291</v>
+        <v>0.02120762751698549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H3">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I3">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J3">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.072614</v>
       </c>
       <c r="O3">
-        <v>0.002001064385947202</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="P3">
-        <v>0.002001064385947201</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="Q3">
-        <v>0.5217169468339998</v>
+        <v>0.8322827961873333</v>
       </c>
       <c r="R3">
-        <v>4.695452521505999</v>
+        <v>7.490545165686</v>
       </c>
       <c r="S3">
-        <v>2.719944195508759E-05</v>
+        <v>4.214996959027181E-05</v>
       </c>
       <c r="T3">
-        <v>2.719944195508757E-05</v>
+        <v>4.21499695902718E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.327816333333333</v>
+      </c>
+      <c r="H4">
+        <v>6.983449</v>
+      </c>
+      <c r="I4">
+        <v>0.02128501190197005</v>
+      </c>
+      <c r="J4">
+        <v>0.02128501190197004</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>1.459193</v>
-      </c>
-      <c r="H4">
-        <v>4.377578999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.01359248715138807</v>
-      </c>
-      <c r="J4">
-        <v>0.01359248715138806</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.119059</v>
+        <v>0.09363533333333333</v>
       </c>
       <c r="N4">
-        <v>0.357177</v>
+        <v>0.280906</v>
       </c>
       <c r="O4">
-        <v>0.0006663479818270725</v>
+        <v>0.0005186100429656566</v>
       </c>
       <c r="P4">
-        <v>0.0006663479818270724</v>
+        <v>0.0005186100429656565</v>
       </c>
       <c r="Q4">
-        <v>0.173730059387</v>
+        <v>0.2179658583104444</v>
       </c>
       <c r="R4">
-        <v>1.563570534483</v>
+        <v>1.961692724794</v>
       </c>
       <c r="S4">
-        <v>9.057326381337851E-06</v>
+        <v>1.10386209370052E-05</v>
       </c>
       <c r="T4">
-        <v>9.057326381337848E-06</v>
+        <v>1.103862093700519E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H5">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I5">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J5">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1705943333333334</v>
+        <v>0.1859536666666667</v>
       </c>
       <c r="N5">
-        <v>0.5117830000000001</v>
+        <v>0.5578609999999999</v>
       </c>
       <c r="O5">
-        <v>0.0009547803167152555</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="P5">
-        <v>0.0009547803167152552</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="Q5">
-        <v>0.2489300570396667</v>
+        <v>0.4328659825098888</v>
       </c>
       <c r="R5">
-        <v>2.240370513357</v>
+        <v>3.895793842589</v>
       </c>
       <c r="S5">
-        <v>1.297783918735034E-05</v>
+        <v>2.192198142630864E-05</v>
       </c>
       <c r="T5">
-        <v>1.297783918735033E-05</v>
+        <v>2.192198142630864E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H6">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I6">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J6">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04906366666666667</v>
+        <v>0.01928766666666666</v>
       </c>
       <c r="N6">
-        <v>0.147191</v>
+        <v>0.057863</v>
       </c>
       <c r="O6">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="P6">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="Q6">
-        <v>0.07159335895433333</v>
+        <v>0.04489814549855555</v>
       </c>
       <c r="R6">
-        <v>0.6443402305889999</v>
+        <v>0.404083309487</v>
       </c>
       <c r="S6">
-        <v>3.732482571373577E-06</v>
+        <v>2.273813030970971E-06</v>
       </c>
       <c r="T6">
-        <v>3.732482571373575E-06</v>
+        <v>2.273813030970971E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>309.115586</v>
       </c>
       <c r="I7">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J7">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>177.977656</v>
+        <v>179.8941446666667</v>
       </c>
       <c r="N7">
-        <v>533.9329680000001</v>
+        <v>539.6824340000001</v>
       </c>
       <c r="O7">
-        <v>0.9961032083749486</v>
+        <v>0.9963643720125241</v>
       </c>
       <c r="P7">
-        <v>0.9961032083749484</v>
+        <v>0.9963643720125243</v>
       </c>
       <c r="Q7">
-        <v>18338.55580978214</v>
+        <v>18536.02798220181</v>
       </c>
       <c r="R7">
-        <v>165047.0022880393</v>
+        <v>166824.2518398163</v>
       </c>
       <c r="S7">
-        <v>0.9560710789925931</v>
+        <v>0.9387350301523923</v>
       </c>
       <c r="T7">
-        <v>0.9560710789925927</v>
+        <v>0.9387350301523923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>309.115586</v>
       </c>
       <c r="I8">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J8">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.072614</v>
       </c>
       <c r="O8">
-        <v>0.002001064385947202</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="P8">
-        <v>0.002001064385947201</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="Q8">
         <v>36.84018946242266</v>
@@ -948,10 +948,10 @@
         <v>331.561705161804</v>
       </c>
       <c r="S8">
-        <v>0.001920644136592369</v>
+        <v>0.001865727457847698</v>
       </c>
       <c r="T8">
-        <v>0.001920644136592368</v>
+        <v>0.001865727457847698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>309.115586</v>
       </c>
       <c r="I9">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J9">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.119059</v>
+        <v>0.09363533333333333</v>
       </c>
       <c r="N9">
-        <v>0.357177</v>
+        <v>0.280906</v>
       </c>
       <c r="O9">
-        <v>0.0006663479818270725</v>
+        <v>0.0005186100429656566</v>
       </c>
       <c r="P9">
-        <v>0.0006663479818270724</v>
+        <v>0.0005186100429656565</v>
       </c>
       <c r="Q9">
-        <v>12.26766418452466</v>
+        <v>9.648046977879556</v>
       </c>
       <c r="R9">
-        <v>110.408977660722</v>
+        <v>86.83242280091599</v>
       </c>
       <c r="S9">
-        <v>0.0006395682983586383</v>
+        <v>0.000488613832445004</v>
       </c>
       <c r="T9">
-        <v>0.0006395682983586381</v>
+        <v>0.0004886138324450038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>309.115586</v>
       </c>
       <c r="I10">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J10">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1705943333333334</v>
+        <v>0.1859536666666667</v>
       </c>
       <c r="N10">
-        <v>0.5117830000000001</v>
+        <v>0.5578609999999999</v>
       </c>
       <c r="O10">
-        <v>0.0009547803167152555</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="P10">
-        <v>0.0009547803167152552</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="Q10">
-        <v>17.57778910553756</v>
+        <v>19.16039221350511</v>
       </c>
       <c r="R10">
-        <v>158.200101949838</v>
+        <v>172.443529921546</v>
       </c>
       <c r="S10">
-        <v>0.0009164089021378173</v>
+        <v>0.0009703552119983281</v>
       </c>
       <c r="T10">
-        <v>0.0009164089021378168</v>
+        <v>0.000970355211998328</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>309.115586</v>
       </c>
       <c r="I11">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J11">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.04906366666666667</v>
+        <v>0.01928766666666666</v>
       </c>
       <c r="N11">
-        <v>0.147191</v>
+        <v>0.057863</v>
       </c>
       <c r="O11">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="P11">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="Q11">
-        <v>5.055448024325112</v>
+        <v>1.987372794746444</v>
       </c>
       <c r="R11">
-        <v>45.499032218926</v>
+        <v>17.886355152718</v>
       </c>
       <c r="S11">
-        <v>0.0002635631560926554</v>
+        <v>0.0001006481249484356</v>
       </c>
       <c r="T11">
-        <v>0.0002635631560926553</v>
+        <v>0.0001006481249484356</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H12">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I12">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J12">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>177.977656</v>
+        <v>179.8941446666667</v>
       </c>
       <c r="N12">
-        <v>533.9329680000001</v>
+        <v>539.6824340000001</v>
       </c>
       <c r="O12">
-        <v>0.9961032083749486</v>
+        <v>0.9963643720125241</v>
       </c>
       <c r="P12">
-        <v>0.9961032083749484</v>
+        <v>0.9963643720125243</v>
       </c>
       <c r="Q12">
-        <v>508.1590744204747</v>
+        <v>715.2176236119636</v>
       </c>
       <c r="R12">
-        <v>4573.431669784272</v>
+        <v>6436.958612507673</v>
       </c>
       <c r="S12">
-        <v>0.02649260932106258</v>
+        <v>0.03622134354304888</v>
       </c>
       <c r="T12">
-        <v>0.02649260932106257</v>
+        <v>0.03622134354304887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H13">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I13">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J13">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.072614</v>
       </c>
       <c r="O13">
-        <v>0.002001064385947202</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="P13">
-        <v>0.002001064385947201</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="Q13">
-        <v>1.020837015350667</v>
+        <v>1.421488615901333</v>
       </c>
       <c r="R13">
-        <v>9.187533138155999</v>
+        <v>12.793397543112</v>
       </c>
       <c r="S13">
-        <v>5.3220807399745E-05</v>
+        <v>7.198959561297084E-05</v>
       </c>
       <c r="T13">
-        <v>5.322080739974498E-05</v>
+        <v>7.198959561297083E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H14">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I14">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J14">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.119059</v>
+        <v>0.09363533333333333</v>
       </c>
       <c r="N14">
-        <v>0.357177</v>
+        <v>0.280906</v>
       </c>
       <c r="O14">
-        <v>0.0006663479818270725</v>
+        <v>0.0005186100429656566</v>
       </c>
       <c r="P14">
-        <v>0.0006663479818270724</v>
+        <v>0.0005186100429656565</v>
       </c>
       <c r="Q14">
-        <v>0.3399354312286666</v>
+        <v>0.3722724867831111</v>
       </c>
       <c r="R14">
-        <v>3.059418881057999</v>
+        <v>3.350452381048</v>
       </c>
       <c r="S14">
-        <v>1.772235708709631E-05</v>
+        <v>1.885329610209935E-05</v>
       </c>
       <c r="T14">
-        <v>1.77223570870963E-05</v>
+        <v>1.885329610209934E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H15">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I15">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J15">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1705943333333334</v>
+        <v>0.1859536666666667</v>
       </c>
       <c r="N15">
-        <v>0.5117830000000001</v>
+        <v>0.5578609999999999</v>
       </c>
       <c r="O15">
-        <v>0.0009547803167152555</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="P15">
-        <v>0.0009547803167152552</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="Q15">
-        <v>0.4870783247535556</v>
+        <v>0.7393088853542222</v>
       </c>
       <c r="R15">
-        <v>4.383704922782</v>
+        <v>6.653779968187999</v>
       </c>
       <c r="S15">
-        <v>2.539357539008787E-05</v>
+        <v>3.744141676152607E-05</v>
       </c>
       <c r="T15">
-        <v>2.539357539008785E-05</v>
+        <v>3.744141676152606E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.975769333333333</v>
+      </c>
+      <c r="H16">
+        <v>11.927308</v>
+      </c>
+      <c r="I16">
+        <v>0.03635351138648862</v>
+      </c>
+      <c r="J16">
+        <v>0.03635351138648861</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01928766666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.057863</v>
+      </c>
+      <c r="O16">
+        <v>0.0001068269560497881</v>
+      </c>
+      <c r="P16">
+        <v>0.0001068269560497881</v>
+      </c>
+      <c r="Q16">
+        <v>0.07668331364488888</v>
+      </c>
+      <c r="R16">
+        <v>0.6901498228039999</v>
+      </c>
+      <c r="S16">
+        <v>3.883534963139892E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.883534963139891E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.06598</v>
+      </c>
+      <c r="I17">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J17">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>179.8941446666667</v>
+      </c>
+      <c r="N17">
+        <v>539.6824340000001</v>
+      </c>
+      <c r="O17">
+        <v>0.9963643720125241</v>
+      </c>
+      <c r="P17">
+        <v>0.9963643720125243</v>
+      </c>
+      <c r="Q17">
+        <v>3.956471888368889</v>
+      </c>
+      <c r="R17">
+        <v>35.60824699532</v>
+      </c>
+      <c r="S17">
+        <v>0.0002003708000975882</v>
+      </c>
+      <c r="T17">
+        <v>0.0002003708000975882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.06598</v>
+      </c>
+      <c r="I18">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J18">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.357538</v>
+      </c>
+      <c r="N18">
+        <v>1.072614</v>
+      </c>
+      <c r="O18">
+        <v>0.001980265258220062</v>
+      </c>
+      <c r="P18">
+        <v>0.001980265258220062</v>
+      </c>
+      <c r="Q18">
+        <v>0.007863452413333333</v>
+      </c>
+      <c r="R18">
+        <v>0.07077107172</v>
+      </c>
+      <c r="S18">
+        <v>3.982351691214661E-07</v>
+      </c>
+      <c r="T18">
+        <v>3.982351691214661E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.855184666666666</v>
-      </c>
-      <c r="H16">
-        <v>8.565553999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="J16">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="K16">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.06598</v>
+      </c>
+      <c r="I19">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J19">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M16">
-        <v>0.04906366666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.147191</v>
-      </c>
-      <c r="O16">
-        <v>0.0002745989405619865</v>
-      </c>
-      <c r="P16">
-        <v>0.0002745989405619865</v>
-      </c>
-      <c r="Q16">
-        <v>0.1400858287571111</v>
-      </c>
-      <c r="R16">
-        <v>1.260772458814</v>
-      </c>
-      <c r="S16">
-        <v>7.303301897957576E-06</v>
-      </c>
-      <c r="T16">
-        <v>7.303301897957573E-06</v>
+      <c r="M19">
+        <v>0.09363533333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.280906</v>
+      </c>
+      <c r="O19">
+        <v>0.0005186100429656566</v>
+      </c>
+      <c r="P19">
+        <v>0.0005186100429656565</v>
+      </c>
+      <c r="Q19">
+        <v>0.002059353097777778</v>
+      </c>
+      <c r="R19">
+        <v>0.01853417788</v>
+      </c>
+      <c r="S19">
+        <v>1.042934815481008E-07</v>
+      </c>
+      <c r="T19">
+        <v>1.042934815481008E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.06598</v>
+      </c>
+      <c r="I20">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J20">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1859536666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.5578609999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.001029925730240237</v>
+      </c>
+      <c r="P20">
+        <v>0.001029925730240237</v>
+      </c>
+      <c r="Q20">
+        <v>0.004089740975555555</v>
+      </c>
+      <c r="R20">
+        <v>0.03680766878</v>
+      </c>
+      <c r="S20">
+        <v>2.071200540746906E-07</v>
+      </c>
+      <c r="T20">
+        <v>2.071200540746906E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.06598</v>
+      </c>
+      <c r="I21">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J21">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01928766666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.057863</v>
+      </c>
+      <c r="O21">
+        <v>0.0001068269560497881</v>
+      </c>
+      <c r="P21">
+        <v>0.0001068269560497881</v>
+      </c>
+      <c r="Q21">
+        <v>0.0004242000822222222</v>
+      </c>
+      <c r="R21">
+        <v>0.00381780074</v>
+      </c>
+      <c r="S21">
+        <v>2.148310724163156E-08</v>
+      </c>
+      <c r="T21">
+        <v>2.148310724163156E-08</v>
       </c>
     </row>
   </sheetData>
